--- a/www/terminologies/ValueSet-jdv-localisation-anatomique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-localisation-anatomique-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-localisation-anatomique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-localisation-anatomique-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115832</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -222,7 +222,7 @@
     <t>730364005</t>
   </si>
   <si>
-    <t>zone entière du conduit auditif interne</t>
+    <t>zone entière du méat acoustique interne</t>
   </si>
   <si>
     <t>362877004</t>
@@ -720,7 +720,7 @@
     <t>181178004</t>
   </si>
   <si>
-    <t>conduit auditif externe entier</t>
+    <t>méat acoustique externe entier</t>
   </si>
   <si>
     <t>362044002</t>
@@ -747,10 +747,10 @@
     <t>veine jugulaire externe entière</t>
   </si>
   <si>
-    <t>1290040004</t>
-  </si>
-  <si>
-    <t>œil entier</t>
+    <t>81745001</t>
+  </si>
+  <si>
+    <t>œil</t>
   </si>
   <si>
     <t>732141005</t>
@@ -810,7 +810,7 @@
     <t>302541005</t>
   </si>
   <si>
-    <t>doigt entier de la main, sauf le pouce</t>
+    <t>doigt entier de la main excepté le pouce</t>
   </si>
   <si>
     <t>362673003</t>
@@ -936,7 +936,7 @@
     <t>281490009</t>
   </si>
   <si>
-    <t>partie laryngée entière du pharynx</t>
+    <t>hypopharynx entier</t>
   </si>
   <si>
     <t>181249005</t>
@@ -1020,7 +1020,7 @@
     <t>361734005</t>
   </si>
   <si>
-    <t>conduit auditif interne entier de l'os temporal</t>
+    <t>méat acoustique interne entier de l'os temporal</t>
   </si>
   <si>
     <t>362045001</t>
@@ -1128,13 +1128,13 @@
     <t>244387002</t>
   </si>
   <si>
-    <t>atrium gauche entier</t>
+    <t>oreillette gauche entière</t>
   </si>
   <si>
     <t>277930000</t>
   </si>
   <si>
-    <t>appendice atrial gauche entier</t>
+    <t>appendice auriculaire gauche entier</t>
   </si>
   <si>
     <t>244385005</t>
@@ -1200,7 +1200,7 @@
     <t>362793004</t>
   </si>
   <si>
-    <t>partie inférieure entière de la jambe, du genou à la cheville</t>
+    <t>partie inférieure entière du membre inférieur</t>
   </si>
   <si>
     <t>182281004</t>
@@ -1284,7 +1284,7 @@
     <t>265784008</t>
   </si>
   <si>
-    <t>mastoïde entière</t>
+    <t>mastoïde entier</t>
   </si>
   <si>
     <t>181813003</t>
@@ -2010,7 +2010,7 @@
     <t>243931006</t>
   </si>
   <si>
-    <t>colonne thoracique entière</t>
+    <t>colonne vertébrale thoracique entière</t>
   </si>
   <si>
     <t>1145018008</t>
@@ -2100,7 +2100,7 @@
     <t>61660003</t>
   </si>
   <si>
-    <t>portion ombilicale entière de la veine porte</t>
+    <t>partie ombilicale entière de la veine porte</t>
   </si>
   <si>
     <t>243961003</t>
@@ -2118,7 +2118,7 @@
     <t>302538001</t>
   </si>
   <si>
-    <t>partie supérieure entière du bras, de l'épaule au coude</t>
+    <t>partie supérieure entière du membre supérieur</t>
   </si>
   <si>
     <t>181132007</t>
